--- a/RoomServer/wg/data/all_wg_logs/expenses.xlsx
+++ b/RoomServer/wg/data/all_wg_logs/expenses.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>06/10/25</t>
+          <t>10/10/25</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>06/10/25</t>
+          <t>10/10/25</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>06/10/25</t>
+          <t>10/10/25</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>06/10/25</t>
+          <t>10/10/25</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>06/10/25</t>
+          <t>12/10/25</t>
         </is>
       </c>
     </row>

--- a/RoomServer/wg/data/all_wg_logs/expenses.xlsx
+++ b/RoomServer/wg/data/all_wg_logs/expenses.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,6 +586,121 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Jay</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>salt</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>14/10/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Jay</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Oil - 2 quantity</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16/10/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Jay</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>sponge scrubber - 2</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>19/10/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Jay</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>sponge scrubber - 2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19/10/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Claudio</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>30.62</v>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Wg plants</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>23/10/25</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -597,7 +712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,16 +743,26 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>181.17</v>
+        <v>211.79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
+          <t>Jay</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
           <t>Natchaya</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B4" s="2" t="n">
         <v>8.76</v>
       </c>
     </row>

--- a/RoomServer/wg/data/all_wg_logs/expenses.xlsx
+++ b/RoomServer/wg/data/all_wg_logs/expenses.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,6 +770,121 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Mara</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Olive oil</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>03/11/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Mara</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Toilet paper</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>03/11/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Mara</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>Garlic</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>04/11/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Claudio</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>Oil bottles</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>07/11/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Claudio</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>bottle opener</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>08/11/25</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -781,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -812,7 +927,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>265.79</v>
+        <v>278.34</v>
       </c>
     </row>
     <row r="3">
@@ -838,10 +953,20 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
+          <t>Mara</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
           <t>Natchaya</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B6" s="2" t="n">
         <v>8.76</v>
       </c>
     </row>

--- a/RoomServer/wg/data/all_wg_logs/expenses.xlsx
+++ b/RoomServer/wg/data/all_wg_logs/expenses.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,6 +882,167 @@
       <c r="E19" s="2" t="inlineStr">
         <is>
           <t>08/11/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Natchaya</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Hand Soap</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>11/11/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Natchaya</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Kirchen Paper</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>12/11/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Natchaya</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Breakfast Bags</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>12/11/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Natchaya</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>Trash bags</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>12/11/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Jay</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>salt and sugar</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>13/11/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Lea</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>Toilet cleaner + cling film</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>19/11/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Lea</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Rest of the cling film (it read 1,5€ as 1€ and 5ct)</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>19/11/25</t>
         </is>
       </c>
     </row>
@@ -937,7 +1098,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>6.73</v>
+        <v>8.51</v>
       </c>
     </row>
     <row r="4">
@@ -947,7 +1108,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>27.9</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="5">
@@ -967,7 +1128,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>8.76</v>
+        <v>16.74</v>
       </c>
     </row>
   </sheetData>

--- a/RoomServer/wg/data/all_wg_logs/expenses.xlsx
+++ b/RoomServer/wg/data/all_wg_logs/expenses.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,6 +1043,172 @@
       <c r="E26" s="2" t="inlineStr">
         <is>
           <t>19/11/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Claudio</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>Idroponische herben</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>22/11/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Jay</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>garlic and sugar</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>28/11/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Jay</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>oil</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>29/11/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Jay</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>toilet paper
+washing liquid
+salt
+onion</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>29/11/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Mara</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>Müllbeutel</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>02/12/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Jay</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>salt-2
+onion
+garlic -2</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>17/12/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Natchaya</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>Toilet paper</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>20/12/25</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1254,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>278.34</v>
+        <v>297.34</v>
       </c>
     </row>
     <row r="3">
@@ -1098,7 +1264,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>8.51</v>
+        <v>27.21</v>
       </c>
     </row>
     <row r="4">
@@ -1118,7 +1284,7 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>11.23</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="6">
@@ -1128,7 +1294,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>16.74</v>
+        <v>19.43</v>
       </c>
     </row>
   </sheetData>
